--- a/output/Результат.xlsx
+++ b/output/Результат.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1663" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1704" uniqueCount="165">
   <si>
     <t>Среднее геометрическое</t>
   </si>
@@ -585,13 +585,13 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>115</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>116</v>
+        <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>117</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -599,13 +599,13 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>118</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>120</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4">
@@ -613,13 +613,13 @@
         <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>121</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>122</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>123</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5">
@@ -641,13 +641,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>124</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>125</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>126</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7">
@@ -655,13 +655,13 @@
         <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>127</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>128</v>
+        <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>129</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8">
@@ -669,13 +669,13 @@
         <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>130</v>
+        <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>131</v>
+        <v>34</v>
       </c>
       <c r="D8" t="s">
-        <v>132</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9">
@@ -683,13 +683,13 @@
         <v>38</v>
       </c>
       <c r="B9" t="s">
-        <v>133</v>
+        <v>39</v>
       </c>
       <c r="C9" t="s">
-        <v>134</v>
+        <v>40</v>
       </c>
       <c r="D9" t="s">
-        <v>135</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10">
@@ -697,13 +697,13 @@
         <v>43</v>
       </c>
       <c r="B10" t="s">
-        <v>136</v>
+        <v>44</v>
       </c>
       <c r="C10" t="s">
-        <v>136</v>
+        <v>44</v>
       </c>
       <c r="D10" t="s">
-        <v>137</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -733,35 +733,35 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.817271046149397</v>
+        <v>0.315707175764358</v>
       </c>
       <c r="B2" t="n">
-        <v>0.3113173809102615</v>
+        <v>0.010352502365498943</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.3437528899326518</v>
+        <v>0.29473446657327257</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.3113173809102615</v>
+        <v>0.010352502365498943</v>
       </c>
       <c r="B3" t="n">
-        <v>3.925780366074264</v>
+        <v>0.0436149727015632</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.060811829738471</v>
+        <v>0.01230734702769087</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-0.3437528899326518</v>
+        <v>0.29473446657327257</v>
       </c>
       <c r="B4" t="n">
-        <v>-1.060811829738471</v>
+        <v>0.01230734702769087</v>
       </c>
       <c r="C4" t="n">
-        <v>9.426087727484989</v>
+        <v>9.112969069579835</v>
       </c>
     </row>
   </sheetData>
